--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3861,4 +3862,2036 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.3726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5894,4 +5895,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.5323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7661,4 +7662,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7670,7 +7671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7681,17 +7682,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7701,14 +7722,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.88</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7717,14 +7760,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.28</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7733,14 +7798,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.73</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4967</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7749,13 +7836,2355 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2572</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10083,7 +10084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10094,17 +10095,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10114,14 +10135,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.97</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10130,14 +10173,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.88</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10146,14 +10211,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.28</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10162,14 +10249,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.73</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -10178,13 +10287,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10900,7 +10901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10911,17 +10912,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10931,14 +10952,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.67</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10947,14 +10990,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.97</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10963,14 +11028,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.88</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10979,14 +11066,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.28</v>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -10995,14 +11104,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.73</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -11011,13 +11142,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>42</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>22.67</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>24.97</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>30.88</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>34.28</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>26.73</v>
+        <v>34.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>42</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.55</v>
       </c>
     </row>
@@ -600,6 +617,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4377,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6143,7 +7126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8175,7 +9158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9941,7 +10924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
+++ b/数据整理/stocks/A股/创业板/300253-卫宁健康.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>3.84</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>8.359999999999999</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>22.67</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>24.97</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>30.88</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>34.28</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>26.73</v>
+        <v>34.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1682 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>42</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证医疗指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2286,2718 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6107</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016524</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016525</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>017628</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1582,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2132,7 +6513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2948,7 +7329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5360,7 +9741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7126,7 +11507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9158,7 +13539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10922,1656 +15303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.2086</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4754</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1388</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7002</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6652</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001736</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰优加生活股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6650</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004934</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6506</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512170</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3590</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3502</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004958</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2801</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2540</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>162412</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝中证医疗指数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2516</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2475</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2389</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>151002</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河收益债券</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0890</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0890</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008245</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0700</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>502056</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010065</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008246</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009881</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002919</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001723</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华商新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004891</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004892</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>